--- a/record/Two.xlsx
+++ b/record/Two.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
@@ -42,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -52,14 +52,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72,28 +76,28 @@
   <dimension ref="A1:C100"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
     <col min="3" max="3" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.71945701357466052</v>
+        <v>-0.73755656108597267</v>
       </c>
       <c r="B2">
-        <v>0.75073313782991269</v>
+        <v>0.83284457478005924</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -101,508 +105,508 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.73755656108597267</v>
+        <v>-0.63800904977375539</v>
       </c>
       <c r="B3">
-        <v>0.8797653958944287</v>
+        <v>1.0439882697947223</v>
       </c>
       <c r="C3">
-        <v>0.0097263604402542114</v>
+        <v>0.015811622142791748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.71040723981900444</v>
+        <v>-0.5022624434389138</v>
       </c>
       <c r="B4">
-        <v>1.0557184750733146</v>
+        <v>1.1730205278592383</v>
       </c>
       <c r="C4">
-        <v>0.025970488786697388</v>
+        <v>0.045302510261535645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.68325791855203599</v>
+        <v>-0.43891402714932126</v>
       </c>
       <c r="B5">
-        <v>1.1378299120234612</v>
+        <v>1.2199413489736077</v>
       </c>
       <c r="C5">
-        <v>0.036219879984855652</v>
+        <v>0.061184540390968323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.62895927601809931</v>
+        <v>-0.23981900452488669</v>
       </c>
       <c r="B6">
-        <v>1.2082111436950154</v>
+        <v>1.2785923753665696</v>
       </c>
       <c r="C6">
-        <v>0.045201927423477173</v>
+        <v>0.087175145745277405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.58371040723981893</v>
+        <v>-0.13122171945701333</v>
       </c>
       <c r="B7">
-        <v>1.2903225806451619</v>
+        <v>1.2785923753665696</v>
       </c>
       <c r="C7">
-        <v>0.055380910634994507</v>
+        <v>0.11578090488910675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.53846153846153855</v>
+        <v>0.04977375565610842</v>
       </c>
       <c r="B8">
-        <v>1.3489736070381237</v>
+        <v>1.2434017595307925</v>
       </c>
       <c r="C8">
-        <v>0.070910900831222534</v>
+        <v>0.1394178718328476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.49321266968325772</v>
+        <v>0.15837104072398223</v>
       </c>
       <c r="B9">
-        <v>1.4193548387096779</v>
+        <v>1.196480938416423</v>
       </c>
       <c r="C9">
-        <v>0.078374147415161133</v>
+        <v>0.15489757061004639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.43891402714932126</v>
+        <v>0.27601809954751122</v>
       </c>
       <c r="B10">
-        <v>1.454545454545455</v>
+        <v>1.1495601173020535</v>
       </c>
       <c r="C10">
-        <v>0.094386935234069824</v>
+        <v>0.17785057425498962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.37556561085972828</v>
+        <v>0.31221719457013553</v>
       </c>
       <c r="B11">
-        <v>1.4897360703812321</v>
+        <v>1.1260997067448688</v>
       </c>
       <c r="C11">
-        <v>0.10221228003501892</v>
+        <v>0.19616670906543732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.33936651583710398</v>
+        <v>0.36651583710407287</v>
       </c>
       <c r="B12">
-        <v>1.5131964809384169</v>
+        <v>1.0322580645161299</v>
       </c>
       <c r="C12">
-        <v>0.11213980615139008</v>
+        <v>0.21163634955883026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.28506787330316707</v>
+        <v>0.3936651583710411</v>
       </c>
       <c r="B13">
-        <v>1.5366568914956016</v>
+        <v>0.92668621700879816</v>
       </c>
       <c r="C13">
-        <v>0.12232884764671326</v>
+        <v>0.24248510599136353</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.23981900452488669</v>
+        <v>0.3936651583710411</v>
       </c>
       <c r="B14">
-        <v>1.5366568914956016</v>
+        <v>0.84457478005865161</v>
       </c>
       <c r="C14">
-        <v>0.13102926313877106</v>
+        <v>0.25084353983402252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.19457013574660631</v>
+        <v>0.36651583710407287</v>
       </c>
       <c r="B15">
-        <v>1.5483870967741939</v>
+        <v>0.66862170087976569</v>
       </c>
       <c r="C15">
-        <v>0.14061480760574341</v>
+        <v>0.27368590235710144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.13122171945701333</v>
+        <v>0.31221719457013553</v>
       </c>
       <c r="B16">
-        <v>1.5249266862170092</v>
+        <v>0.45747800586510312</v>
       </c>
       <c r="C16">
-        <v>0.14965720474720001</v>
+        <v>0.28520263731479645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-0.058823529411764719</v>
+        <v>0.24886877828054299</v>
       </c>
       <c r="B17">
-        <v>1.5249266862170092</v>
+        <v>0.25806451612903292</v>
       </c>
       <c r="C17">
-        <v>0.15967525541782379</v>
+        <v>0.308990478515625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.0045248868778280382</v>
+        <v>0.085972850678733614</v>
       </c>
       <c r="B18">
-        <v>1.5014662756598245</v>
+        <v>-0.070381231671553746</v>
       </c>
       <c r="C18">
-        <v>0.16951225697994232</v>
+        <v>0.32289102673530579</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.04977375565610842</v>
+        <v>-0.076923076923076872</v>
       </c>
       <c r="B19">
-        <v>1.4780058651026398</v>
+        <v>-0.31671554252199341</v>
       </c>
       <c r="C19">
-        <v>0.17872564494609833</v>
+        <v>0.34521035850048065</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.12217194570135792</v>
+        <v>-0.20361990950226239</v>
       </c>
       <c r="B20">
-        <v>1.454545454545455</v>
+        <v>-0.53958944281524879</v>
       </c>
       <c r="C20">
-        <v>0.18971934914588928</v>
+        <v>0.36096163094043732</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.17647058823529438</v>
+        <v>-0.29411764705882359</v>
       </c>
       <c r="B21">
-        <v>1.3958944281524932</v>
+        <v>-0.72727272727272663</v>
       </c>
       <c r="C21">
-        <v>0.19814819097518921</v>
+        <v>0.37999190390110016</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.23076923076923084</v>
+        <v>-0.33936651583710398</v>
       </c>
       <c r="B22">
-        <v>1.3607038123167161</v>
+        <v>-0.79765395894428082</v>
       </c>
       <c r="C22">
-        <v>0.20815618336200714</v>
+        <v>0.40344782173633575</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.27601809954751122</v>
+        <v>-0.45701357466063341</v>
       </c>
       <c r="B23">
-        <v>1.325513196480939</v>
+        <v>-0.97360703812316673</v>
       </c>
       <c r="C23">
-        <v>0.21830499172210693</v>
+        <v>0.41720755398273468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.32126696832579249</v>
+        <v>-0.52036199095022595</v>
       </c>
       <c r="B24">
-        <v>1.2785923753665696</v>
+        <v>-1.079178885630498</v>
       </c>
       <c r="C24">
-        <v>0.22918805480003357</v>
+        <v>0.44630616903305054</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.34841628959276072</v>
+        <v>-0.53846153846153855</v>
       </c>
       <c r="B25">
-        <v>1.2434017595307925</v>
+        <v>-1.1026392961876827</v>
       </c>
       <c r="C25">
-        <v>0.23988001048564911</v>
+        <v>0.46674460172653198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.38461538461538503</v>
+        <v>-0.54751131221719462</v>
       </c>
       <c r="B26">
-        <v>1.2082111436950154</v>
+        <v>-1.1378299120234598</v>
       </c>
       <c r="C26">
-        <v>0.25048144161701202</v>
+        <v>0.48232488334178925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.42081447963800933</v>
+        <v>-0.56561085972850678</v>
       </c>
       <c r="B27">
-        <v>1.1143695014662764</v>
+        <v>-1.1612903225806446</v>
       </c>
       <c r="C27">
-        <v>0.26090182363986969</v>
+        <v>0.50545893609523773</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.44796380090497756</v>
+        <v>-0.5565610859728507</v>
       </c>
       <c r="B28">
-        <v>1.067448680351907</v>
+        <v>-1.1612903225806446</v>
       </c>
       <c r="C28">
-        <v>0.27201622724533081</v>
+        <v>0.60370825231075287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.47511312217194579</v>
+        <v>-0.52941176470588203</v>
       </c>
       <c r="B29">
-        <v>0.9970674486803528</v>
+        <v>-1.1612903225806446</v>
       </c>
       <c r="C29">
-        <v>0.2819940447807312</v>
+        <v>0.61112120747566223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.50226244343891402</v>
+        <v>-0.46606334841628949</v>
       </c>
       <c r="B30">
-        <v>0.90322580645161343</v>
+        <v>-1.1495601173020522</v>
       </c>
       <c r="C30">
-        <v>0.29219314455986023</v>
+        <v>0.62092803418636322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.52941176470588225</v>
+        <v>-0.33936651583710398</v>
       </c>
       <c r="B31">
-        <v>0.78592375366568978</v>
+        <v>-1.1378299120234598</v>
       </c>
       <c r="C31">
-        <v>0.30224137008190155</v>
+        <v>0.64225159585475922</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.5475113122171944</v>
+        <v>-0.25791855203619884</v>
       </c>
       <c r="B32">
-        <v>0.71554252199413515</v>
+        <v>-1.1378299120234598</v>
       </c>
       <c r="C32">
-        <v>0.31178668141365051</v>
+        <v>0.65436176955699921</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.56561085972850744</v>
+        <v>-0.11312217194570118</v>
       </c>
       <c r="B33">
-        <v>0.62170087976539623</v>
+        <v>-1.1143695014662751</v>
       </c>
       <c r="C33">
-        <v>0.3221265971660614</v>
+        <v>0.67313052713871002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.56561085972850744</v>
+        <v>-0.040723981900452122</v>
       </c>
       <c r="B34">
-        <v>0.51612903225806495</v>
+        <v>-1.0909090909090904</v>
       </c>
       <c r="C34">
-        <v>0.33113881945610046</v>
+        <v>0.68938471376895905</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.56561085972850744</v>
+        <v>0.22171945701357476</v>
       </c>
       <c r="B35">
-        <v>0.3988269794721413</v>
+        <v>-1.0322580645161286</v>
       </c>
       <c r="C35">
-        <v>0.34104622900485992</v>
+        <v>0.7090788334608078</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.55656108597285048</v>
+        <v>0.31221719457013553</v>
       </c>
       <c r="B36">
-        <v>0.29325513196481001</v>
+        <v>-1.0087976539589438</v>
       </c>
       <c r="C36">
-        <v>0.35061165690422058</v>
+        <v>0.72043463587760925</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.52941176470588225</v>
+        <v>0.41176470588235325</v>
       </c>
       <c r="B37">
-        <v>0.18768328445747873</v>
+        <v>-1.0087976539589438</v>
       </c>
       <c r="C37">
-        <v>0.36151483654975891</v>
+        <v>0.7431764155626297</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.5113122171945701</v>
+        <v>0.46606334841628971</v>
       </c>
       <c r="B38">
-        <v>0.11730205278592454</v>
+        <v>-0.99706744868035146</v>
       </c>
       <c r="C38">
-        <v>0.37232749164104462</v>
+        <v>0.75623206794261932</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.47511312217194579</v>
+        <v>0.60180995475113175</v>
       </c>
       <c r="B39">
-        <v>0.023460410557185174</v>
+        <v>-0.99706744868035146</v>
       </c>
       <c r="C39">
-        <v>0.38814917206764221</v>
+        <v>0.7797684520483017</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.41176470588235325</v>
+        <v>0.64705882352941213</v>
       </c>
       <c r="B40">
-        <v>-0.10557184750733084</v>
+        <v>-0.99706744868035146</v>
       </c>
       <c r="C40">
-        <v>0.39657801389694214</v>
+        <v>0.79381987452507019</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.37556561085972895</v>
+        <v>0.72850678733031682</v>
       </c>
       <c r="B41">
-        <v>-0.1876832844574774</v>
+        <v>-1.0087976539589438</v>
       </c>
       <c r="C41">
-        <v>0.407380610704422</v>
+        <v>0.81529431045055389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.33031674208144857</v>
+        <v>0.78280542986425328</v>
       </c>
       <c r="B42">
-        <v>-0.28152492668621631</v>
+        <v>-1.0087976539589438</v>
       </c>
       <c r="C42">
-        <v>0.41823349893093109</v>
+        <v>0.83879046142101288</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.22171945701357476</v>
+        <v>0.82805429864253455</v>
       </c>
       <c r="B43">
-        <v>-0.42228739002932514</v>
+        <v>-1.0205278592375362</v>
       </c>
       <c r="C43">
-        <v>0.429559126496315</v>
+        <v>0.85321404039859772</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1674208144796383</v>
+        <v>0.8461538461538467</v>
       </c>
       <c r="B44">
-        <v>-0.49266862170087933</v>
+        <v>-1.0322580645161286</v>
       </c>
       <c r="C44">
-        <v>0.44033154845237732</v>
+        <v>0.87447725236415863</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.10407239819004577</v>
+        <v>0.8461538461538467</v>
       </c>
       <c r="B45">
-        <v>-0.55131964809384115</v>
+        <v>-1.0322580645161286</v>
       </c>
       <c r="C45">
-        <v>0.44884085655212402</v>
+        <v>0.8866477757692337</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.040723981900452344</v>
+        <v>0.85520361990950278</v>
       </c>
       <c r="B46">
-        <v>-0.62170087976539534</v>
+        <v>-1.0322580645161286</v>
       </c>
       <c r="C46">
-        <v>0.46484358608722687</v>
+        <v>0.9154144674539566</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.022624434389139969</v>
+        <v>0.86425339366515885</v>
       </c>
       <c r="B47">
-        <v>-0.6686217008797648</v>
+        <v>-1.0439882697947209</v>
       </c>
       <c r="C47">
-        <v>0.47323219478130341</v>
+        <v>0.9470377117395401</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.076923076923076872</v>
+        <v>0.87330316742081493</v>
       </c>
       <c r="B48">
-        <v>-0.7038123167155419</v>
+        <v>-1.0557184750733133</v>
       </c>
       <c r="C48">
-        <v>0.4816107451915741</v>
+        <v>1.010485365986824</v>
       </c>
     </row>
     <row r="49">
